--- a/1term/FundamentalsOfBusinessAndLaw/Лабораторная работа 1_с/Статистика обзор.xlsx
+++ b/1term/FundamentalsOfBusinessAndLaw/Лабораторная работа 1_с/Статистика обзор.xlsx
@@ -1,25 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Институт\Экономика ERP\Лабораторная работа 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BSTU\4course\1term\FundamentalsOfBusinessAndLaw\Лабораторная работа 1_с\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFD1ABB-DF14-4996-A61B-27D0CA2B2220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20633" windowHeight="7598" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Число зарегистрированных" sheetId="1" r:id="rId1"/>
     <sheet name="Организационно-правовые формы" sheetId="2" r:id="rId2"/>
     <sheet name="Формы регистрации" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -133,7 +143,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -234,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -243,7 +253,14 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -253,6 +270,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -276,6 +296,3473 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Согласование</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> наименований ЮЛ</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Формы регистрации'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>В бумажном виде</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Формы регистрации'!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Формы регистрации'!$B$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>14167</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2293</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3127</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2718</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B1DC-4F3A-8C4C-18719D26C29B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Формы регистрации'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>В электронном виде</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Формы регистрации'!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Формы регистрации'!$B$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10670</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25476</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33359</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31316</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B1DC-4F3A-8C4C-18719D26C29B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="934759519"/>
+        <c:axId val="934757855"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="934759519"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="934757855"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="934757855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="934759519"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Предоставление информации из ЕГР</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Формы регистрации'!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Общее количество выписок</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Формы регистрации'!$B$16:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Формы регистрации'!$B$17:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>26042</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24411</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24917</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6992-46C1-A094-12154FA24BBC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Формы регистрации'!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Доля выписок в эл виде</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Формы регистрации'!$B$16:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Формы регистрации'!$B$18:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>17187.72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15867.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16445.22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6992-46C1-A094-12154FA24BBC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1085137807"/>
+        <c:axId val="1085141551"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1085137807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1085141551"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1085141551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1085137807"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Электронная регистрация и ликвидация субъектов хозяйствования</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Формы регистрации'!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Регистрация ЮЛ, в т.ч. изменений</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Формы регистрации'!$B$8:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Формы регистрации'!$B$9:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3811</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4043</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4439</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6E20-4855-8816-7612FA2F5F9E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Формы регистрации'!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Регистрация ИП, в т.ч. изменений</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Формы регистрации'!$B$8:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Формы регистрации'!$B$10:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>868</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>692</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6E20-4855-8816-7612FA2F5F9E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Формы регистрации'!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Уведомления</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Формы регистрации'!$B$8:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Формы регистрации'!$B$11:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5419</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6221</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7416</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6E20-4855-8816-7612FA2F5F9E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Ликвидация ЮЛ, ИП</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Формы регистрации'!$B$8:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Формы регистрации'!$B$12:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1435</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1878</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1493</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6E20-4855-8816-7612FA2F5F9E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1114669583"/>
+        <c:axId val="1114664175"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1114669583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1114664175"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1114664175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1114669583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152801</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>169445</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>459607</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>169445</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F97E9313-A823-4364-808A-12AF27B85569}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>96654</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>124928</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>96252</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>124929</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A4D93A6-9103-4C9A-B14E-7CC3252BE69D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>62966</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1804</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>413485</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>33808</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Диаграмма 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C3B8F9E-9A8E-4E03-A22F-4FA7DDF1EBEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -540,18 +4027,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.296875" customWidth="1"/>
-    <col min="5" max="5" width="12.3984375" customWidth="1"/>
-    <col min="6" max="6" width="12.296875" customWidth="1"/>
-    <col min="10" max="10" width="12.3984375" customWidth="1"/>
-    <col min="11" max="11" width="11.796875" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" customWidth="1"/>
+    <col min="11" max="11" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -561,20 +4048,20 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="6" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="11"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
@@ -740,18 +4227,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="5" max="5" width="12.19921875" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -783,71 +4270,155 @@
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="B3" s="2">
+        <v>7968</v>
+      </c>
+      <c r="C3" s="2">
+        <v>8113</v>
+      </c>
+      <c r="D3" s="2">
+        <v>10346</v>
+      </c>
+      <c r="E3" s="6">
+        <f>(C3/B3)*100</f>
+        <v>101.81977911646587</v>
+      </c>
+      <c r="F3" s="6">
+        <f>(D3/C3)*100</f>
+        <v>127.52372735116479</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6">
+        <f t="shared" ref="E4:E9" si="0">(C4/B4)*100</f>
+        <v>200</v>
+      </c>
+      <c r="F4" s="6">
+        <f t="shared" ref="F4:F9" si="1">(D4/C4)*100</f>
+        <v>200</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="B5" s="2">
+        <v>856</v>
+      </c>
+      <c r="C5" s="2">
+        <v>950</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1159</v>
+      </c>
+      <c r="E5" s="6">
+        <f t="shared" si="0"/>
+        <v>110.98130841121497</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="B6" s="2">
+        <v>47</v>
+      </c>
+      <c r="C6" s="2">
+        <v>29</v>
+      </c>
+      <c r="D6" s="2">
+        <v>35</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
+        <v>61.702127659574465</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="1"/>
+        <v>120.68965517241379</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="B7" s="2">
+        <v>130</v>
+      </c>
+      <c r="C7" s="2">
+        <v>86</v>
+      </c>
+      <c r="D7" s="2">
+        <v>69</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" si="0"/>
+        <v>66.153846153846146</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="1"/>
+        <v>80.232558139534888</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="B8" s="2">
+        <v>309</v>
+      </c>
+      <c r="C8" s="2">
+        <v>285</v>
+      </c>
+      <c r="D8" s="2">
+        <v>210</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" si="0"/>
+        <v>92.233009708737868</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="1"/>
+        <v>73.68421052631578</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="B9" s="2">
+        <v>395</v>
+      </c>
+      <c r="C9" s="2">
+        <v>362</v>
+      </c>
+      <c r="D9" s="2">
+        <v>306</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="0"/>
+        <v>91.64556962025317</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="1"/>
+        <v>84.530386740331494</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -855,75 +4426,117 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView zoomScale="76" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.5" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="12.3984375" customWidth="1"/>
-    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="33.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="8" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3">
+        <v>2015</v>
+      </c>
+      <c r="C2" s="3">
         <v>2021</v>
       </c>
-      <c r="C2" s="3">
+      <c r="D2" s="3">
         <v>2022</v>
       </c>
-      <c r="D2" s="3">
+      <c r="E2" s="3">
         <v>2023</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="B3" s="8">
+        <v>14167</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2293</v>
+      </c>
+      <c r="D3" s="7">
+        <v>3127</v>
+      </c>
+      <c r="E3" s="7">
+        <v>2718</v>
+      </c>
+      <c r="F3" s="9">
+        <f>(D3/C3)*100</f>
+        <v>136.37156563453991</v>
+      </c>
+      <c r="G3" s="9">
+        <f>(E3/D3)*100</f>
+        <v>86.920370962583945</v>
+      </c>
+      <c r="H3" s="9">
+        <f>(E3/B3)*100</f>
+        <v>19.185430931036919</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="B4" s="8">
+        <v>10670</v>
+      </c>
+      <c r="C4" s="7">
+        <v>25476</v>
+      </c>
+      <c r="D4" s="7">
+        <v>33359</v>
+      </c>
+      <c r="E4" s="7">
+        <v>31316</v>
+      </c>
+      <c r="F4" s="9">
+        <f>(D4/C4)*100</f>
+        <v>130.94284817082743</v>
+      </c>
+      <c r="G4" s="9">
+        <f>(E4/D4)*100</f>
+        <v>93.875715698911833</v>
+      </c>
+      <c r="H4" s="9">
+        <f>(E4/B4)*100</f>
+        <v>293.49578256794751</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="3">
         <v>2021</v>
@@ -941,52 +4554,101 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="B9" s="7">
+        <v>3811</v>
+      </c>
+      <c r="C9" s="7">
+        <v>4043</v>
+      </c>
+      <c r="D9" s="7">
+        <v>4439</v>
+      </c>
+      <c r="E9" s="9">
+        <f>(C9/B9)*100</f>
+        <v>106.08764103909736</v>
+      </c>
+      <c r="F9" s="9">
+        <f>(D9/C9)*100</f>
+        <v>109.79470690081624</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="B10" s="7">
+        <v>875</v>
+      </c>
+      <c r="C10" s="7">
+        <v>868</v>
+      </c>
+      <c r="D10" s="7">
+        <v>692</v>
+      </c>
+      <c r="E10" s="9">
+        <f t="shared" ref="E10:E12" si="0">(C10/B10)*100</f>
+        <v>99.2</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" ref="F10:F12" si="1">(D10/C10)*100</f>
+        <v>79.723502304147459</v>
+      </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="B11" s="7">
+        <v>5419</v>
+      </c>
+      <c r="C11" s="7">
+        <v>6221</v>
+      </c>
+      <c r="D11" s="7">
+        <v>7416</v>
+      </c>
+      <c r="E11" s="9">
+        <f t="shared" si="0"/>
+        <v>114.79977855692934</v>
+      </c>
+      <c r="F11" s="9">
+        <f t="shared" si="1"/>
+        <v>119.20913036489311</v>
+      </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="B12" s="7">
+        <v>1435</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1878</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1493</v>
+      </c>
+      <c r="E12" s="9">
+        <f t="shared" si="0"/>
+        <v>130.87108013937282</v>
+      </c>
+      <c r="F12" s="9">
+        <f t="shared" si="1"/>
+        <v>79.499467518636848</v>
+      </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="3">
         <v>2021</v>
@@ -1008,23 +4670,52 @@
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="B17" s="7">
+        <v>26042</v>
+      </c>
+      <c r="C17" s="7">
+        <v>24411</v>
+      </c>
+      <c r="D17" s="7">
+        <v>24917</v>
+      </c>
+      <c r="E17" s="6">
+        <f>(C17/B17)*100</f>
+        <v>93.737040165885873</v>
+      </c>
+      <c r="F17" s="6">
+        <f>(D17/C17)*100</f>
+        <v>102.0728360165499</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="B18" s="9">
+        <f>B17*0.66</f>
+        <v>17187.72</v>
+      </c>
+      <c r="C18" s="9">
+        <f>C17*0.65</f>
+        <v>15867.15</v>
+      </c>
+      <c r="D18" s="9">
+        <f>D17*0.66</f>
+        <v>16445.22</v>
+      </c>
+      <c r="E18" s="6">
+        <f>(C18/B18)*100</f>
+        <v>92.316781981554257</v>
+      </c>
+      <c r="F18" s="6">
+        <f>(D18/C18)*100</f>
+        <v>103.64318733988146</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>